--- a/ResultsExp_CP_g10_gamma2.xlsx
+++ b/ResultsExp_CP_g10_gamma2.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,19 +411,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>0.0263653483992467</v>
       </c>
       <c r="B2">
-        <v>-1.124102191451257</v>
+        <v>-1.11474535500385</v>
       </c>
       <c r="C2">
-        <v>0.8895988350569474</v>
+        <v>0.8970658594908847</v>
       </c>
       <c r="D2">
-        <v>57.89423383114875</v>
+        <v>60.18825241703215</v>
       </c>
       <c r="E2">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,118 +431,475 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.8180084044855164</v>
+        <v>-0.5957653872316673</v>
       </c>
       <c r="C3">
-        <v>1.222481327229085</v>
+        <v>1.678513088258925</v>
       </c>
       <c r="D3">
-        <v>57.86809844840936</v>
+        <v>57.87473927751147</v>
       </c>
       <c r="E3">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.3013182674199623</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>-1.009081319220924</v>
+        <v>-0.7056482924152409</v>
       </c>
       <c r="C4">
-        <v>0.9910004089383641</v>
+        <v>1.417136568951756</v>
       </c>
       <c r="D4">
-        <v>77.41693756311902</v>
+        <v>57.85713830932273</v>
       </c>
       <c r="E4">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0</v>
+        <v>0.8229755178907722</v>
       </c>
       <c r="B5">
-        <v>-0.9909003209696882</v>
+        <v>-0.7100229385394164</v>
       </c>
       <c r="C5">
-        <v>1.009183243599525</v>
+        <v>1.408405201748965</v>
       </c>
       <c r="D5">
-        <v>58.01591694182409</v>
+        <v>75.8541482881479</v>
       </c>
       <c r="E5">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>0.02448210922787194</v>
+        <v>0.992467043314501</v>
       </c>
       <c r="B6">
-        <v>-1.022925961494236</v>
+        <v>-0.7701217431334257</v>
       </c>
       <c r="C6">
-        <v>0.9775878584010643</v>
+        <v>1.298495996141155</v>
       </c>
       <c r="D6">
-        <v>60.9127335570081</v>
+        <v>58.78955970974137</v>
       </c>
       <c r="E6">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0</v>
+        <v>0.6290018832391713</v>
       </c>
       <c r="B7">
-        <v>-1.061540334410699</v>
+        <v>-0.8906038547082903</v>
       </c>
       <c r="C7">
-        <v>0.9420273234885016</v>
+        <v>1.122833675952976</v>
       </c>
       <c r="D7">
-        <v>58.00862726766289</v>
+        <v>77.97461718297504</v>
       </c>
       <c r="E7">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-0.6536950406345018</v>
+        <v>-1.213170682366511</v>
       </c>
       <c r="C8">
-        <v>1.529765315382171</v>
+        <v>0.8242863222257543</v>
       </c>
       <c r="D8">
-        <v>57.9279977337799</v>
+        <v>57.85797844615147</v>
       </c>
       <c r="E8">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>0.04708097928436911</v>
+        <v>0.9962335216572504</v>
       </c>
       <c r="B9">
-        <v>-1.072167294502958</v>
+        <v>-0.7673355916255787</v>
       </c>
       <c r="C9">
-        <v>0.9326902668333922</v>
+        <v>1.303210760602839</v>
       </c>
       <c r="D9">
-        <v>63.05995634610078</v>
+        <v>58.27364367920695</v>
       </c>
       <c r="E9">
-        <v>261</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0.263653483992467</v>
+      </c>
+      <c r="B10">
+        <v>-1.262488760642881</v>
+      </c>
+      <c r="C10">
+        <v>0.7920862594378919</v>
+      </c>
+      <c r="D10">
+        <v>75.01836951238104</v>
+      </c>
+      <c r="E10">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>0.9868173258003767</v>
+      </c>
+      <c r="B11">
+        <v>-0.7840588904278412</v>
+      </c>
+      <c r="C11">
+        <v>1.275414400893184</v>
+      </c>
+      <c r="D11">
+        <v>58.88612637731929</v>
+      </c>
+      <c r="E11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>-0.849946928929965</v>
+      </c>
+      <c r="C12">
+        <v>1.176544047590057</v>
+      </c>
+      <c r="D12">
+        <v>57.767125021295</v>
+      </c>
+      <c r="E12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.9566854990583804</v>
+      </c>
+      <c r="B13">
+        <v>-0.888920692806722</v>
+      </c>
+      <c r="C13">
+        <v>1.124959749606628</v>
+      </c>
+      <c r="D13">
+        <v>60.36392489473399</v>
+      </c>
+      <c r="E13">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>-0.8534183826287601</v>
+      </c>
+      <c r="C14">
+        <v>1.171758214206412</v>
+      </c>
+      <c r="D14">
+        <v>57.68441858969764</v>
+      </c>
+      <c r="E14">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.9849340866290018</v>
+      </c>
+      <c r="B15">
+        <v>-0.8518283352610803</v>
+      </c>
+      <c r="C15">
+        <v>1.173945451924308</v>
+      </c>
+      <c r="D15">
+        <v>59.49809197158706</v>
+      </c>
+      <c r="E15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>-1.276838795246501</v>
+      </c>
+      <c r="C16">
+        <v>0.7831842231947095</v>
+      </c>
+      <c r="D16">
+        <v>57.82348498865162</v>
+      </c>
+      <c r="E16">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>-1.280208554676057</v>
+      </c>
+      <c r="C17">
+        <v>0.7811227290642808</v>
+      </c>
+      <c r="D17">
+        <v>57.77875756542716</v>
+      </c>
+      <c r="E17">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>0.39924670433145</v>
+      </c>
+      <c r="B18">
+        <v>-1.158104941382131</v>
+      </c>
+      <c r="C18">
+        <v>0.8634796073027352</v>
+      </c>
+      <c r="D18">
+        <v>88.30278164404652</v>
+      </c>
+      <c r="E18">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>0.6459510357815442</v>
+      </c>
+      <c r="B19">
+        <v>-0.8807882495372659</v>
+      </c>
+      <c r="C19">
+        <v>1.135346663088845</v>
+      </c>
+      <c r="D19">
+        <v>82.32962484773117</v>
+      </c>
+      <c r="E19">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>0.3258003766478343</v>
+      </c>
+      <c r="B20">
+        <v>-1.130166284637391</v>
+      </c>
+      <c r="C20">
+        <v>0.8848255461105407</v>
+      </c>
+      <c r="D20">
+        <v>80.95183507761932</v>
+      </c>
+      <c r="E20">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>-0.9854922327033259</v>
+      </c>
+      <c r="C21">
+        <v>1.014721341087466</v>
+      </c>
+      <c r="D21">
+        <v>57.7677495030014</v>
+      </c>
+      <c r="E21">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>-1.307689273072017</v>
+      </c>
+      <c r="C22">
+        <v>0.7647076569274021</v>
+      </c>
+      <c r="D22">
+        <v>57.78013279637744</v>
+      </c>
+      <c r="E22">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>0.5160075329566854</v>
+      </c>
+      <c r="B23">
+        <v>-0.9977320082330872</v>
+      </c>
+      <c r="C23">
+        <v>1.002273147246152</v>
+      </c>
+      <c r="D23">
+        <v>79.04274726024939</v>
+      </c>
+      <c r="E23">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.05649717514124293</v>
+      </c>
+      <c r="B24">
+        <v>-1.154132252544814</v>
+      </c>
+      <c r="C24">
+        <v>0.8664518280249436</v>
+      </c>
+      <c r="D24">
+        <v>64.4684471576379</v>
+      </c>
+      <c r="E24">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>-1.162977273415076</v>
+      </c>
+      <c r="C25">
+        <v>0.8598620307200898</v>
+      </c>
+      <c r="D25">
+        <v>57.84188896420588</v>
+      </c>
+      <c r="E25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>0.9962335216572504</v>
+      </c>
+      <c r="B26">
+        <v>-0.7931452389242313</v>
+      </c>
+      <c r="C26">
+        <v>1.260803130277038</v>
+      </c>
+      <c r="D26">
+        <v>58.29431969142013</v>
+      </c>
+      <c r="E26">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>0.0376647834274953</v>
+      </c>
+      <c r="B27">
+        <v>-1.143029781594096</v>
+      </c>
+      <c r="C27">
+        <v>0.8748678434304452</v>
+      </c>
+      <c r="D27">
+        <v>62.15080187244735</v>
+      </c>
+      <c r="E27">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>-1.088120249756812</v>
+      </c>
+      <c r="C28">
+        <v>0.9190160740262796</v>
+      </c>
+      <c r="D28">
+        <v>57.92884053741297</v>
+      </c>
+      <c r="E28">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>0.04519774011299435</v>
+      </c>
+      <c r="B29">
+        <v>-1.05109343816382</v>
+      </c>
+      <c r="C29">
+        <v>0.9513902034693732</v>
+      </c>
+      <c r="D29">
+        <v>61.98156253419735</v>
+      </c>
+      <c r="E29">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0.5574387947269303</v>
+      </c>
+      <c r="B30">
+        <v>-0.9973599013177442</v>
+      </c>
+      <c r="C30">
+        <v>1.002647087253826</v>
+      </c>
+      <c r="D30">
+        <v>78.43672413264299</v>
+      </c>
+      <c r="E30">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsExp_CP_g10_gamma2.xlsx
+++ b/ResultsExp_CP_g10_gamma2.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -902,6 +902,890 @@
         <v>289</v>
       </c>
     </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0.9604519774011299</v>
+      </c>
+      <c r="B31">
+        <v>-0.8009350924579089</v>
+      </c>
+      <c r="C31">
+        <v>1.248540623849057</v>
+      </c>
+      <c r="D31">
+        <v>61.61188710106367</v>
+      </c>
+      <c r="E31">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0.1242937853107344</v>
+      </c>
+      <c r="B32">
+        <v>-1.082568723364748</v>
+      </c>
+      <c r="C32">
+        <v>0.9237288852128344</v>
+      </c>
+      <c r="D32">
+        <v>67.03646137857845</v>
+      </c>
+      <c r="E32">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>-1.066735088981003</v>
+      </c>
+      <c r="C33">
+        <v>0.9374398670575732</v>
+      </c>
+      <c r="D33">
+        <v>57.9810439636755</v>
+      </c>
+      <c r="E33">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.9981167608286252</v>
+      </c>
+      <c r="B34">
+        <v>-0.6831049213888322</v>
+      </c>
+      <c r="C34">
+        <v>1.463903960707651</v>
+      </c>
+      <c r="D34">
+        <v>58.1810186393693</v>
+      </c>
+      <c r="E34">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>0.9566854990583804</v>
+      </c>
+      <c r="B35">
+        <v>-0.7428181410095844</v>
+      </c>
+      <c r="C35">
+        <v>1.346224526289669</v>
+      </c>
+      <c r="D35">
+        <v>62.28714842222756</v>
+      </c>
+      <c r="E35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>0.01129943502824859</v>
+      </c>
+      <c r="B36">
+        <v>-1.102131829421322</v>
+      </c>
+      <c r="C36">
+        <v>0.9073324744872431</v>
+      </c>
+      <c r="D36">
+        <v>59.31883574881834</v>
+      </c>
+      <c r="E36">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>-1.063129586152548</v>
+      </c>
+      <c r="C37">
+        <v>0.9406191051638272</v>
+      </c>
+      <c r="D37">
+        <v>57.94323768861454</v>
+      </c>
+      <c r="E37">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>0.9962335216572504</v>
+      </c>
+      <c r="B38">
+        <v>-0.6744960365753702</v>
+      </c>
+      <c r="C38">
+        <v>1.48258840048537</v>
+      </c>
+      <c r="D38">
+        <v>58.36019003179511</v>
+      </c>
+      <c r="E38">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>-1.04572803912486</v>
+      </c>
+      <c r="C39">
+        <v>0.9562715759604872</v>
+      </c>
+      <c r="D39">
+        <v>57.97814954206976</v>
+      </c>
+      <c r="E39">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>-0.7158544827925828</v>
+      </c>
+      <c r="C40">
+        <v>1.396931952006436</v>
+      </c>
+      <c r="D40">
+        <v>57.96541716009305</v>
+      </c>
+      <c r="E40">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>-1.040704267230842</v>
+      </c>
+      <c r="C41">
+        <v>0.960887767531549</v>
+      </c>
+      <c r="D41">
+        <v>57.9756249619428</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>0.9981167608286252</v>
+      </c>
+      <c r="B42">
+        <v>-0.7886397111147035</v>
+      </c>
+      <c r="C42">
+        <v>1.268006145146494</v>
+      </c>
+      <c r="D42">
+        <v>58.21295729510764</v>
+      </c>
+      <c r="E42">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>0.08662900188323917</v>
+      </c>
+      <c r="B43">
+        <v>-1.033702939005004</v>
+      </c>
+      <c r="C43">
+        <v>0.9673959144999188</v>
+      </c>
+      <c r="D43">
+        <v>62.91674336946415</v>
+      </c>
+      <c r="E43">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>0.8907721280602635</v>
+      </c>
+      <c r="B44">
+        <v>-0.768174406531688</v>
+      </c>
+      <c r="C44">
+        <v>1.301787707969868</v>
+      </c>
+      <c r="D44">
+        <v>67.26920416151547</v>
+      </c>
+      <c r="E44">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>-0.8478665422481725</v>
+      </c>
+      <c r="C45">
+        <v>1.179430901175126</v>
+      </c>
+      <c r="D45">
+        <v>57.92470640705272</v>
+      </c>
+      <c r="E45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>0.03578154425612053</v>
+      </c>
+      <c r="B46">
+        <v>-1.185006716429994</v>
+      </c>
+      <c r="C46">
+        <v>0.843877073551656</v>
+      </c>
+      <c r="D46">
+        <v>61.71235513441571</v>
+      </c>
+      <c r="E46">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>0.3088512241054614</v>
+      </c>
+      <c r="B47">
+        <v>-1.263741091973785</v>
+      </c>
+      <c r="C47">
+        <v>0.7913013245760184</v>
+      </c>
+      <c r="D47">
+        <v>80.91614851346992</v>
+      </c>
+      <c r="E47">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>0.01129943502824859</v>
+      </c>
+      <c r="B48">
+        <v>-1.085332193342047</v>
+      </c>
+      <c r="C48">
+        <v>0.9213768891538311</v>
+      </c>
+      <c r="D48">
+        <v>59.35252214467954</v>
+      </c>
+      <c r="E48">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>-0.9913423600891156</v>
+      </c>
+      <c r="C49">
+        <v>1.008733249238039</v>
+      </c>
+      <c r="D49">
+        <v>58.02202745526735</v>
+      </c>
+      <c r="E49">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>-0.8103073158391007</v>
+      </c>
+      <c r="C50">
+        <v>1.234099681013575</v>
+      </c>
+      <c r="D50">
+        <v>58.00401264215157</v>
+      </c>
+      <c r="E50">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>0.4821092278719398</v>
+      </c>
+      <c r="B51">
+        <v>-0.9156836498967766</v>
+      </c>
+      <c r="C51">
+        <v>1.092080218001848</v>
+      </c>
+      <c r="D51">
+        <v>82.36904265477325</v>
+      </c>
+      <c r="E51">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>0.04519774011299436</v>
+      </c>
+      <c r="B52">
+        <v>-0.8960983451863695</v>
+      </c>
+      <c r="C52">
+        <v>1.115948941733645</v>
+      </c>
+      <c r="D52">
+        <v>62.45342425966329</v>
+      </c>
+      <c r="E52">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>-0.8607300676394761</v>
+      </c>
+      <c r="C53">
+        <v>1.161804423473281</v>
+      </c>
+      <c r="D53">
+        <v>58.15630925601334</v>
+      </c>
+      <c r="E53">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>-0.8813580398137605</v>
+      </c>
+      <c r="C54">
+        <v>1.134612671385297</v>
+      </c>
+      <c r="D54">
+        <v>58.17534061976972</v>
+      </c>
+      <c r="E54">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>-0.7280770729153516</v>
+      </c>
+      <c r="C55">
+        <v>1.373480964035607</v>
+      </c>
+      <c r="D55">
+        <v>58.04925417298322</v>
+      </c>
+      <c r="E55">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>-0.774453726653359</v>
+      </c>
+      <c r="C56">
+        <v>1.291232730354714</v>
+      </c>
+      <c r="D56">
+        <v>58.02245393832324</v>
+      </c>
+      <c r="E56">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>0.9774011299435029</v>
+      </c>
+      <c r="B57">
+        <v>-0.768973818156468</v>
+      </c>
+      <c r="C57">
+        <v>1.300434392418447</v>
+      </c>
+      <c r="D57">
+        <v>60.63100078172218</v>
+      </c>
+      <c r="E57">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>0.1412429378531073</v>
+      </c>
+      <c r="B58">
+        <v>-0.9025056443505122</v>
+      </c>
+      <c r="C58">
+        <v>1.108026311258862</v>
+      </c>
+      <c r="D58">
+        <v>66.69049637275967</v>
+      </c>
+      <c r="E58">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>-0.8776626356880292</v>
+      </c>
+      <c r="C59">
+        <v>1.139389965275287</v>
+      </c>
+      <c r="D59">
+        <v>58.15580159194555</v>
+      </c>
+      <c r="E59">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>0.160075329566855</v>
+      </c>
+      <c r="B60">
+        <v>-0.8271451989009821</v>
+      </c>
+      <c r="C60">
+        <v>1.208977578941023</v>
+      </c>
+      <c r="D60">
+        <v>71.49257013324853</v>
+      </c>
+      <c r="E60">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>-0.8309812895199207</v>
+      </c>
+      <c r="C61">
+        <v>1.203396529635133</v>
+      </c>
+      <c r="D61">
+        <v>58.19874139806464</v>
+      </c>
+      <c r="E61">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>0.7853107344632767</v>
+      </c>
+      <c r="B62">
+        <v>-0.8638092013521658</v>
+      </c>
+      <c r="C62">
+        <v>1.157663056187232</v>
+      </c>
+      <c r="D62">
+        <v>77.20824890624988</v>
+      </c>
+      <c r="E62">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>0.96045197740113</v>
+      </c>
+      <c r="B63">
+        <v>-0.7957563322835747</v>
+      </c>
+      <c r="C63">
+        <v>1.25666609165435</v>
+      </c>
+      <c r="D63">
+        <v>62.22501659061272</v>
+      </c>
+      <c r="E63">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>-0.7898762431761712</v>
+      </c>
+      <c r="C64">
+        <v>1.266021112344005</v>
+      </c>
+      <c r="D64">
+        <v>58.22649678006469</v>
+      </c>
+      <c r="E64">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>-0.7624210376830229</v>
+      </c>
+      <c r="C65">
+        <v>1.311611236540604</v>
+      </c>
+      <c r="D65">
+        <v>58.28642418979705</v>
+      </c>
+      <c r="E65">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>0.9962335216572504</v>
+      </c>
+      <c r="B66">
+        <v>-0.7497768963622401</v>
+      </c>
+      <c r="C66">
+        <v>1.33373008004353</v>
+      </c>
+      <c r="D66">
+        <v>58.71701842820176</v>
+      </c>
+      <c r="E66">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>-0.7109337735617335</v>
+      </c>
+      <c r="C67">
+        <v>1.406600779408837</v>
+      </c>
+      <c r="D67">
+        <v>58.32962496613715</v>
+      </c>
+      <c r="E67">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>0.9077212806026365</v>
+      </c>
+      <c r="B68">
+        <v>-0.6847304658486055</v>
+      </c>
+      <c r="C68">
+        <v>1.460428664818751</v>
+      </c>
+      <c r="D68">
+        <v>68.24167177494456</v>
+      </c>
+      <c r="E68">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>-0.7312950086789695</v>
+      </c>
+      <c r="C69">
+        <v>1.367437201310079</v>
+      </c>
+      <c r="D69">
+        <v>58.35120664182028</v>
+      </c>
+      <c r="E69">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>-0.6881773727818151</v>
+      </c>
+      <c r="C70">
+        <v>1.453113745890404</v>
+      </c>
+      <c r="D70">
+        <v>58.3649078851996</v>
+      </c>
+      <c r="E70">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>-0.6614206005725572</v>
+      </c>
+      <c r="C71">
+        <v>1.51189726950499</v>
+      </c>
+      <c r="D71">
+        <v>58.41890890546434</v>
+      </c>
+      <c r="E71">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>-0.6395234438367026</v>
+      </c>
+      <c r="C72">
+        <v>1.56366433418091</v>
+      </c>
+      <c r="D72">
+        <v>58.43935645681395</v>
+      </c>
+      <c r="E72">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>-0.637301983065207</v>
+      </c>
+      <c r="C73">
+        <v>1.569114841272482</v>
+      </c>
+      <c r="D73">
+        <v>58.4076962532827</v>
+      </c>
+      <c r="E73">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>-0.6321054812813705</v>
+      </c>
+      <c r="C74">
+        <v>1.582014441597395</v>
+      </c>
+      <c r="D74">
+        <v>58.33698562436072</v>
+      </c>
+      <c r="E74">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>-0.6751243843329197</v>
+      </c>
+      <c r="C75">
+        <v>1.481208534614085</v>
+      </c>
+      <c r="D75">
+        <v>58.39574181829126</v>
+      </c>
+      <c r="E75">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>0.003766478342749529</v>
+      </c>
+      <c r="B76">
+        <v>-0.6720782147585005</v>
+      </c>
+      <c r="C76">
+        <v>1.487922057344669</v>
+      </c>
+      <c r="D76">
+        <v>58.85776513223269</v>
+      </c>
+      <c r="E76">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>-0.6712244716122197</v>
+      </c>
+      <c r="C77">
+        <v>1.489814573652375</v>
+      </c>
+      <c r="D77">
+        <v>58.40374140220661</v>
+      </c>
+      <c r="E77">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>-0.6679312706415528</v>
+      </c>
+      <c r="C78">
+        <v>1.497160028215916</v>
+      </c>
+      <c r="D78">
+        <v>58.4156881550624</v>
+      </c>
+      <c r="E78">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>-0.4730780001054666</v>
+      </c>
+      <c r="C79">
+        <v>2.11381632580053</v>
+      </c>
+      <c r="D79">
+        <v>58.39430120986331</v>
+      </c>
+      <c r="E79">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>0.05461393596986817</v>
+      </c>
+      <c r="B80">
+        <v>-0.6799041521655677</v>
+      </c>
+      <c r="C80">
+        <v>1.470795547894351</v>
+      </c>
+      <c r="D80">
+        <v>64.33585141842174</v>
+      </c>
+      <c r="E80">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>-0.6949217713230657</v>
+      </c>
+      <c r="C81">
+        <v>1.439010894846616</v>
+      </c>
+      <c r="D81">
+        <v>58.38387365682191</v>
+      </c>
+      <c r="E81">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>-0.4194905282478421</v>
+      </c>
+      <c r="C82">
+        <v>2.383844050488747</v>
+      </c>
+      <c r="D82">
+        <v>58.33493239996287</v>
+      </c>
+      <c r="E82">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
